--- a/medicine/Enfance/Robert_J._Harris/Robert_J._Harris.xlsx
+++ b/medicine/Enfance/Robert_J._Harris/Robert_J._Harris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert J. Harris, né en 1955 à Dundee en Écosse, est un enseignant et écrivain écossais de fantasy pour la jeunesse. Il est le créateur du jeu de cartes sur plateau Talisman.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,16 +553,89 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série The Artie Conan Doyle Mysteries
-(en) Artie Conan Doyle and the Scarlet Phantom, 2019
-Série Young Heroes
-Cette série est coécrite avec Jane Yolen.
+          <t>Série The Artie Conan Doyle Mysteries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Artie Conan Doyle and the Scarlet Phantom, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert_J._Harris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_J._Harris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Young Heroes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Jane Yolen.
 (en) Odysseus in the Serpent Maze, 2001
 (en) Hippolyta and the Curse of the Amazons, 2002
 (en) Atalanta and the Arcadian Beast, 2003
-(en) Jason and the Gorgon's Blood, 2004
-Romans indépendants
-(en) Prince Across the Water, 2004Coécrit avec Jane Yolen.
+(en) Jason and the Gorgon's Blood, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Robert_J._Harris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_J._Harris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Prince Across the Water, 2004Coécrit avec Jane Yolen.
 (en) The Day the World Went Loki, 2013</t>
         </is>
       </c>
